--- a/wrf-solutions-data-points.xlsx
+++ b/wrf-solutions-data-points.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamfontanez/Desktop/wrf-solutions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED352EAF-383B-6F43-BE66-F30A9C65F3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C77785-D7E9-5C4D-B3E9-B988F455C191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="1" xr2:uid="{F5F860E8-82F1-BC43-84A1-01491BA09A3F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="3" xr2:uid="{F5F860E8-82F1-BC43-84A1-01491BA09A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
-    <sheet name="user_basic_information" sheetId="6" r:id="rId2"/>
-    <sheet name="addresses" sheetId="2" r:id="rId3"/>
-    <sheet name="payment_method" sheetId="3" r:id="rId4"/>
-    <sheet name="product_list" sheetId="4" r:id="rId5"/>
-    <sheet name="blog" sheetId="5" r:id="rId6"/>
+    <sheet name="addresses" sheetId="2" r:id="rId2"/>
+    <sheet name="users_info" sheetId="6" r:id="rId3"/>
+    <sheet name="users_contacts" sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
+    <sheet name="payment_method" sheetId="3" r:id="rId6"/>
+    <sheet name="product_list" sheetId="4" r:id="rId7"/>
+    <sheet name="blog" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>user_id</t>
   </si>
@@ -47,19 +49,40 @@
     <t>user_name</t>
   </si>
   <si>
-    <t>user_first_name</t>
-  </si>
-  <si>
-    <t>user_middle_name</t>
-  </si>
-  <si>
-    <t>user_last_name</t>
-  </si>
-  <si>
     <t>user_email</t>
   </si>
   <si>
-    <t>user_birthday</t>
+    <t>user_password</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Personal Email</t>
+  </si>
+  <si>
+    <t>Buisness Email</t>
+  </si>
+  <si>
+    <t>users_info_website</t>
+  </si>
+  <si>
+    <t>users_info_birthday</t>
+  </si>
+  <si>
+    <t>users_info_last_name</t>
+  </si>
+  <si>
+    <t>users_info_middle_name</t>
+  </si>
+  <si>
+    <t>users_info_first_name</t>
   </si>
 </sst>
 </file>
@@ -411,10 +434,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46C6080-31DD-7040-98DB-2E19A3172C73}">
-  <dimension ref="A1:A3"/>
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -431,7 +457,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -440,53 +471,119 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A3598E-E0C4-E344-A8BA-3F0B8F4D4690}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329AC5FD-023E-3545-AFCE-1B55B37F64F2}">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3562B35-F3CB-B142-BBFA-3E42E82F8D6D}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A3598E-E0C4-E344-A8BA-3F0B8F4D4690}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C24985-C518-3745-ABDB-06C7B1D7368C}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49B62E8-7BDF-584F-9A02-D39D3C232CC8}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -498,7 +595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FA4066-FA4C-0C42-8C9E-E0BE14977743}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -512,7 +609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69DE01D4-96E4-7F4C-AD46-757282DA5914}">
   <dimension ref="A1"/>
   <sheetViews>
